--- a/communicate_with_basis_station_in_matlab/calibrations/outdoor/outdoor_calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/outdoor/outdoor_calibration_results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yitong\GitHub\thesis_indoorLocalization\communicate_with_basis_station_in_matlab\calibrations\outdoor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -292,18 +297,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -313,7 +312,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -322,150 +321,6 @@
       <color rgb="FF005CC5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -480,7 +335,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,7 +344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,176 +372,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -724,251 +411,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -990,61 +435,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1331,31 +732,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5666666666667"/>
-    <col min="11" max="12" width="12.5666666666667"/>
-    <col min="14" max="16" width="12.5666666666667"/>
-    <col min="17" max="17" width="11.425"/>
-    <col min="20" max="20" width="12.5666666666667"/>
-    <col min="23" max="23" width="12.5666666666667"/>
-    <col min="26" max="26" width="9.14166666666667" style="10"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125"/>
+    <col min="11" max="12" width="12.5703125"/>
+    <col min="14" max="16" width="12.5703125"/>
+    <col min="17" max="17" width="11.42578125"/>
+    <col min="20" max="20" width="12.5703125"/>
+    <col min="23" max="23" width="12.5703125"/>
+    <col min="26" max="26" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23">
+    <row r="1" spans="2:26">
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:26">
       <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1429,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:26">
+    <row r="3" spans="2:26">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +841,7 @@
         <v>236.363636363636</v>
       </c>
       <c r="F3">
-        <v>4.37632135306554</v>
+        <v>4.3763213530655403</v>
       </c>
       <c r="K3">
         <v>491.787234042553</v>
@@ -1452,16 +853,16 @@
         <v>712.28</v>
       </c>
       <c r="R3">
-        <v>36.0433333333333</v>
+        <v>36.043333333333301</v>
       </c>
       <c r="T3">
-        <v>918.823529411765</v>
+        <v>918.82352941176498</v>
       </c>
       <c r="U3">
-        <v>62.5294117647059</v>
+        <v>62.529411764705898</v>
       </c>
       <c r="W3">
-        <v>1180.66666666667</v>
+        <v>1180.6666666666699</v>
       </c>
       <c r="X3">
         <v>24.3333333333333</v>
@@ -1470,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="62.25" spans="3:26">
+    <row r="4" spans="2:26" ht="76.5">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -1478,16 +879,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="12">
-        <v>2.4339409209068</v>
+        <v>2.4339409209067999</v>
       </c>
       <c r="K4">
-        <v>5.00747842864033</v>
+        <v>5.0074784286403302</v>
       </c>
       <c r="Q4">
-        <v>7.22906801007557</v>
+        <v>7.2290680100755704</v>
       </c>
       <c r="T4">
-        <v>9.31011112757446</v>
+        <v>9.3101111275744604</v>
       </c>
       <c r="W4">
         <v>11.9483291351806</v>
@@ -1496,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:15">
+    <row r="6" spans="2:26">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1507,13 +908,13 @@
         <v>311.767441860465</v>
       </c>
       <c r="F6">
-        <v>49.2303433001107</v>
+        <v>49.230343300110697</v>
       </c>
       <c r="H6">
-        <v>349.263736263736</v>
+        <v>349.26373626373601</v>
       </c>
       <c r="I6">
-        <v>4.39633699633699</v>
+        <v>4.3963369963369896</v>
       </c>
       <c r="K6">
         <v>502.5</v>
@@ -1525,10 +926,10 @@
         <v>587.3125</v>
       </c>
       <c r="O6">
-        <v>35.4475806451613</v>
-      </c>
-    </row>
-    <row r="7" ht="62.25" spans="3:4">
+        <v>35.447580645161302</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="76.5">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:15">
+    <row r="9" spans="2:26">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1544,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="E9" s="13">
-        <v>276.232558139534</v>
+        <v>276.23255813953398</v>
       </c>
       <c r="F9">
-        <v>3.70653377630122</v>
+        <v>3.7065337763012201</v>
       </c>
       <c r="K9">
-        <v>534.739130434783</v>
+        <v>534.73913043478296</v>
       </c>
       <c r="L9">
-        <v>43.3526570048309</v>
+        <v>43.352657004830903</v>
       </c>
       <c r="N9">
-        <v>683.708333333333</v>
+        <v>683.70833333333303</v>
       </c>
       <c r="O9">
-        <v>135.69384057971</v>
-      </c>
-    </row>
-    <row r="10" ht="62.25" spans="3:4">
+        <v>135.69384057971001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="91.5">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:15">
+    <row r="12" spans="2:26">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1578,31 +979,31 @@
         <v>12</v>
       </c>
       <c r="E12" s="13">
-        <v>273.558139534883</v>
+        <v>273.55813953488303</v>
       </c>
       <c r="F12">
-        <v>9.20487264673312</v>
+        <v>9.2048726467331203</v>
       </c>
       <c r="H12" s="13">
         <v>317.622641509434</v>
       </c>
       <c r="I12">
-        <v>6.69433962264151</v>
+        <v>6.6943396226415102</v>
       </c>
       <c r="K12">
-        <v>483.95652173913</v>
+        <v>483.95652173912998</v>
       </c>
       <c r="L12">
-        <v>619.909178743961</v>
+        <v>619.90917874396098</v>
       </c>
       <c r="N12">
-        <v>661.583333333333</v>
+        <v>661.58333333333303</v>
       </c>
       <c r="O12">
-        <v>74.8785714285714</v>
-      </c>
-    </row>
-    <row r="13" ht="62.25" spans="3:4">
+        <v>74.878571428571405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="91.5">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1610,7 +1011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:15">
+    <row r="15" spans="2:26">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1618,16 +1019,16 @@
         <v>12</v>
       </c>
       <c r="E15" s="13">
-        <v>289.976744186046</v>
+        <v>289.97674418604601</v>
       </c>
       <c r="F15">
         <v>12.9756367663344</v>
       </c>
       <c r="K15">
-        <v>471.239130434783</v>
+        <v>471.23913043478302</v>
       </c>
       <c r="L15">
-        <v>7.43043478260869</v>
+        <v>7.4304347826086898</v>
       </c>
       <c r="N15">
         <v>596.5625</v>
@@ -1636,7 +1037,7 @@
         <v>19.0625</v>
       </c>
     </row>
-    <row r="16" ht="62.25" spans="3:4">
+    <row r="16" spans="2:26" ht="76.5">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -1645,53 +1046,53 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:AN16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4:AP16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="9.14166666666667" style="1"/>
-    <col min="5" max="5" width="8.425" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.425" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.56666666666667" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.14166666666667" style="1"/>
-    <col min="10" max="10" width="11.5" style="2"/>
-    <col min="11" max="11" width="9.14166666666667" style="2"/>
-    <col min="12" max="12" width="3.425" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.14166666666667" style="1"/>
-    <col min="15" max="16" width="9.14166666666667" style="2"/>
-    <col min="17" max="17" width="3.70833333333333" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.14166666666667" style="1"/>
-    <col min="20" max="21" width="9.14166666666667" style="2"/>
-    <col min="22" max="22" width="2.85833333333333" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9.14166666666667" style="1"/>
-    <col min="25" max="26" width="9.14166666666667" style="2"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="3.42578125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="3.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="2.85546875" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="1"/>
+    <col min="25" max="26" width="9.140625" style="2"/>
     <col min="27" max="27" width="5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9.14166666666667" style="3"/>
-    <col min="29" max="29" width="9.14166666666667" style="1"/>
-    <col min="30" max="31" width="9.14166666666667" style="4"/>
+    <col min="28" max="28" width="9.140625" style="3"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="31" width="9.140625" style="4"/>
     <col min="32" max="32" width="5" style="1" customWidth="1"/>
-    <col min="33" max="34" width="9.14166666666667" style="1"/>
-    <col min="35" max="35" width="1.56666666666667" style="1" customWidth="1"/>
-    <col min="36" max="37" width="9.14166666666667" style="1"/>
-    <col min="38" max="38" width="1.14166666666667" style="1" customWidth="1"/>
-    <col min="39" max="39" width="9.14166666666667" style="5"/>
-    <col min="40" max="16384" width="9.14166666666667" style="1"/>
+    <col min="33" max="34" width="9.140625" style="1"/>
+    <col min="35" max="36" width="9.140625" style="4"/>
+    <col min="37" max="37" width="1.28515625" style="1" customWidth="1"/>
+    <col min="38" max="39" width="9.140625" style="1"/>
+    <col min="40" max="40" width="1.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="5"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:36">
+    <row r="1" spans="2:42">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1716,11 +1117,11 @@
       <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:39">
+    <row r="2" spans="2:42">
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1797,17 +1198,23 @@
       <c r="AH2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AI2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:40">
+    <row r="3" spans="2:42">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1815,92 +1222,62 @@
         <v>12</v>
       </c>
       <c r="J3" s="2">
-        <v>333.60374</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="M3" s="1">
-        <v>407.556574923547</v>
-      </c>
-      <c r="N3" s="1">
-        <v>99.7326289859553</v>
+        <v>333.60377358490598</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.5070382074116599</v>
       </c>
       <c r="O3" s="2">
-        <v>408.06462585034</v>
+        <v>434.44791666666703</v>
       </c>
       <c r="P3" s="2">
-        <v>7.78219192174243</v>
-      </c>
-      <c r="R3" s="1">
-        <v>518.295918367347</v>
-      </c>
-      <c r="S3" s="1">
-        <v>52.2427771790144</v>
+        <v>1.9012103951584201</v>
       </c>
       <c r="T3" s="2">
-        <v>517.469811320755</v>
+        <v>533.49392712550605</v>
       </c>
       <c r="U3" s="2">
-        <v>4.02002637789811</v>
-      </c>
-      <c r="W3" s="1">
-        <v>632.578947368421</v>
-      </c>
-      <c r="X3" s="1">
-        <v>7.96976483762597</v>
+        <v>2.4669355371900799</v>
       </c>
       <c r="Y3" s="2">
-        <v>632.576470588235</v>
+        <v>626.15189873417705</v>
       </c>
       <c r="Z3" s="2">
-        <v>2.22603878116344</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>717.92</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>5.56108108108108</v>
+        <v>3.5716739331483698</v>
       </c>
       <c r="AD3" s="4">
-        <v>717.89552238806</v>
+        <v>724.06437768240403</v>
       </c>
       <c r="AE3" s="4">
-        <v>1.84746666666667</v>
-      </c>
-      <c r="AM3" s="5" t="s">
+        <v>1.87045512142037</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>846.40524781341105</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>4.1390456114245398</v>
+      </c>
+      <c r="AO3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="3:40">
+    <row r="4" spans="2:42" ht="16.5">
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="O4" s="1">
-        <v>4.16186021057935</v>
-      </c>
-      <c r="T4" s="1">
-        <v>5.26417945894207</v>
-      </c>
       <c r="X4" s="3"/>
-      <c r="Y4" s="1">
-        <v>6.42394428816121</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>89.73</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="5" spans="8:9">
+      <c r="AP4" s="5"/>
+    </row>
+    <row r="5" spans="2:42">
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:31">
+    <row r="6" spans="2:42">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,75 +1286,53 @@
       </c>
       <c r="E6" s="9"/>
       <c r="J6" s="2">
-        <v>318.792453</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="M6" s="1">
-        <v>437.18320610687</v>
-      </c>
-      <c r="N6" s="1">
-        <v>19.388402549198</v>
-      </c>
-      <c r="O6" s="2">
-        <v>436.893039049236</v>
+        <v>318.79245283018901</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.6193622522263702</v>
+      </c>
+      <c r="O6" s="1">
+        <v>428.41666666666703</v>
       </c>
       <c r="P6" s="2">
-        <v>3.33833692675259</v>
-      </c>
-      <c r="R6" s="1">
-        <v>550.568253968254</v>
-      </c>
-      <c r="S6" s="1">
-        <v>38.8180684886566</v>
-      </c>
-      <c r="T6" s="2">
-        <v>549.656690140845</v>
+        <v>8.1441794232822993</v>
+      </c>
+      <c r="T6" s="1">
+        <v>529.37454545454602</v>
       </c>
       <c r="U6" s="2">
-        <v>3.00384983623076</v>
-      </c>
-      <c r="W6" s="1">
-        <v>653.873684210526</v>
-      </c>
-      <c r="X6" s="1">
-        <v>3.21791713325868</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>653.941176470588</v>
+        <v>2.5795216339693599</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>624.74038461538498</v>
       </c>
       <c r="Z6" s="2">
-        <v>1.3990027700831</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>744.963855421687</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>8.35233617396415</v>
+        <v>4.2433858501783597</v>
       </c>
       <c r="AD6" s="4">
-        <v>744.986666666667</v>
+        <v>718.65584415584397</v>
       </c>
       <c r="AE6" s="4">
-        <v>2.16054579764843</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="3:40">
+        <v>2.8396539792387601</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>820.03149606299201</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>5.4343342890196702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" ht="16.5">
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="AM7" s="5">
-        <v>90.42</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>5.531</v>
-      </c>
-    </row>
-    <row r="8" spans="8:9">
+    </row>
+    <row r="8" spans="2:42">
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="2:31">
+    <row r="9" spans="2:42">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1986,75 +1341,53 @@
       </c>
       <c r="E9" s="9"/>
       <c r="J9" s="2">
-        <v>322.584906</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="M9" s="1">
-        <v>403.141509433962</v>
-      </c>
-      <c r="N9" s="1">
-        <v>90.8964789778637</v>
+        <v>322.58490566037699</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.2226371732260899</v>
       </c>
       <c r="O9" s="2">
-        <v>402.818181818182</v>
+        <v>433.96875</v>
       </c>
       <c r="P9" s="2">
-        <v>7.13949210869822</v>
-      </c>
-      <c r="R9" s="1">
-        <v>501.728055077453</v>
-      </c>
-      <c r="S9" s="1">
-        <v>13.591435693513</v>
+        <v>1.5094339622641499</v>
       </c>
       <c r="T9" s="2">
-        <v>501.741873804971</v>
+        <v>539.638783269962</v>
       </c>
       <c r="U9" s="2">
-        <v>2.96024718495324</v>
-      </c>
-      <c r="W9" s="1">
-        <v>618.66265060241</v>
-      </c>
-      <c r="X9" s="1">
-        <v>5.03114898618866</v>
+        <v>1.4669244836864801</v>
       </c>
       <c r="Y9" s="2">
-        <v>618.626666666667</v>
+        <v>631.83333333333303</v>
       </c>
       <c r="Z9" s="2">
-        <v>1.79532588184062</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>716.588888888889</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>7.68302122347065</v>
+        <v>3.4360381480100202</v>
       </c>
       <c r="AD9" s="4">
-        <v>716.524390243902</v>
+        <v>718.24901185770796</v>
       </c>
       <c r="AE9" s="4">
-        <v>2.19679012345679</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="3:40">
+        <v>2.39381466800066</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>838.07763975155297</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>3.7079679161074899</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" ht="16.5">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="AM10" s="5">
-        <v>91.91</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>23.44</v>
-      </c>
-    </row>
-    <row r="11" spans="8:9">
+    </row>
+    <row r="11" spans="2:42">
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:31">
+    <row r="12" spans="2:42">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2063,75 +1396,53 @@
       </c>
       <c r="E12" s="9"/>
       <c r="J12" s="2">
-        <v>352.117647</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="M12" s="1">
-        <v>421.584707646177</v>
-      </c>
-      <c r="N12" s="1">
-        <v>11.0299760029894</v>
+        <v>352.11764705882399</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4.7232994767620804</v>
       </c>
       <c r="O12" s="2">
-        <v>421.472545757072</v>
+        <v>467.35416666666703</v>
       </c>
       <c r="P12" s="2">
-        <v>2.60662322511906</v>
-      </c>
-      <c r="R12" s="1">
-        <v>525.315789473684</v>
-      </c>
-      <c r="S12" s="1">
-        <v>21.6169942929615</v>
+        <v>3.6301174795300799</v>
       </c>
       <c r="T12" s="2">
-        <v>525.110183639399</v>
+        <v>523.47985347985298</v>
       </c>
       <c r="U12" s="2">
-        <v>3.64922833399287</v>
-      </c>
-      <c r="W12" s="1">
-        <v>649.457446808511</v>
-      </c>
-      <c r="X12" s="1">
-        <v>7.69171814230154</v>
+        <v>2.4394558267707902</v>
       </c>
       <c r="Y12" s="2">
-        <v>649.464285714286</v>
+        <v>627.41176470588198</v>
       </c>
       <c r="Z12" s="2">
-        <v>2.2987777274785</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>738.1</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>3.70898876404493</v>
+        <v>8.30193909275933</v>
       </c>
       <c r="AD12" s="4">
-        <v>738.19512195122</v>
+        <v>744.07874015747996</v>
       </c>
       <c r="AE12" s="4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="3:40">
+        <v>2.62091947085157</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>858.65242165242205</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>7.2175613712626099</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" ht="16.5">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="AM13" s="5">
-        <v>89.84</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>21.37</v>
-      </c>
-    </row>
-    <row r="14" spans="8:9">
+    </row>
+    <row r="14" spans="2:42">
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="2:31">
+    <row r="15" spans="2:42">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2140,73 +1451,50 @@
       </c>
       <c r="E15" s="9"/>
       <c r="J15" s="2">
-        <v>322.226415</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="M15" s="1">
-        <v>418.446153846154</v>
-      </c>
-      <c r="N15" s="1">
-        <v>9.04871399786656</v>
+        <v>322.22641509433998</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.4875035909221499</v>
       </c>
       <c r="O15" s="2">
-        <v>418.539249146758</v>
+        <v>419.57291666666703</v>
       </c>
       <c r="P15" s="2">
-        <v>2.29396449704142</v>
-      </c>
-      <c r="R15" s="1">
-        <v>524.156089193825</v>
-      </c>
-      <c r="S15" s="1">
-        <v>7.30720942158408</v>
+        <v>1.82912068351727</v>
       </c>
       <c r="T15" s="2">
-        <v>524.299047619048</v>
+        <v>510.62162162162201</v>
       </c>
       <c r="U15" s="2">
-        <v>2.12688848418159</v>
-      </c>
-      <c r="W15" s="1">
-        <v>638.136842105263</v>
-      </c>
-      <c r="X15" s="1">
-        <v>3.22575587905935</v>
+        <v>2.95508625817966</v>
       </c>
       <c r="Y15" s="2">
-        <v>638.211764705882</v>
+        <v>616.18897637795305</v>
       </c>
       <c r="Z15" s="2">
-        <v>1.39767313019391</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>749.258064516129</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>2.78476996298255</v>
+        <v>4.4722096474020496</v>
       </c>
       <c r="AD15" s="4">
-        <v>717.92</v>
+        <v>707.2578125</v>
       </c>
       <c r="AE15" s="4">
-        <v>5.56108108108108</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="3:40">
+        <v>2.5561396548303801</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>825.23225806451603</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>4.5152193524675104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="16.5">
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="AM16" s="5">
-        <v>91.74</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>15.89</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>